--- a/2020/January/All Details/07.01.2020/MC Balance Transfer Jan'2020.xlsx
+++ b/2020/January/All Details/07.01.2020/MC Balance Transfer Jan'2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\06.01.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\07.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A73464D-AEE0-4026-8BDC-ED0B606AF8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7B67A4-4C18-45DD-8D25-8CD8FD0C0729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LENOVO:</t>
         </r>
@@ -50,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Driving Licence er jonno 1000 Deya Hoyese</t>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -325,12 +325,15 @@
   <si>
     <t>06.01.2020</t>
   </si>
+  <si>
+    <t>07.01.2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -403,19 +406,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1638,9 +1628,9 @@
   <dimension ref="A1:BI232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2384,21 +2374,33 @@
       <c r="BI10" s="7"/>
     </row>
     <row r="11" spans="1:61" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2">
+        <v>410455</v>
+      </c>
+      <c r="C11" s="2">
+        <v>352515</v>
+      </c>
+      <c r="D11" s="2">
+        <v>655</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>353170</v>
       </c>
       <c r="F11" s="137"/>
       <c r="G11" s="19"/>
       <c r="H11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
+      <c r="I11" s="64">
+        <v>1220</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>70</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="129"/>
       <c r="M11" s="129"/>
@@ -3951,23 +3953,23 @@
       </c>
       <c r="B34" s="2">
         <f>SUM(B6:B33)</f>
-        <v>1457835</v>
+        <v>1868290</v>
       </c>
       <c r="C34" s="2">
         <f>SUM(C6:C33)</f>
-        <v>1435260</v>
+        <v>1787775</v>
       </c>
       <c r="D34" s="2">
         <f>SUM(D6:D33)</f>
-        <v>5548</v>
+        <v>6203</v>
       </c>
       <c r="E34" s="2">
         <f>SUM(E6:E33)</f>
-        <v>1440808</v>
+        <v>1793978</v>
       </c>
       <c r="F34" s="94">
         <f>B34-E34</f>
-        <v>17027</v>
+        <v>74312</v>
       </c>
       <c r="G34" s="114"/>
       <c r="H34" s="124"/>
@@ -4520,7 +4522,7 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2">
-        <v>4000</v>
+        <v>3930</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>44</v>
@@ -4724,7 +4726,7 @@
       <c r="A45" s="73"/>
       <c r="B45" s="74"/>
       <c r="C45" s="75">
-        <v>825</v>
+        <v>0</v>
       </c>
       <c r="D45" s="76"/>
       <c r="E45" s="3"/>
@@ -5053,10 +5055,10 @@
       </c>
       <c r="B50" s="43"/>
       <c r="C50" s="98">
-        <v>98990</v>
+        <v>99600</v>
       </c>
       <c r="D50" s="99" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="12"/>
@@ -5187,10 +5189,10 @@
       </c>
       <c r="B52" s="43"/>
       <c r="C52" s="98">
-        <v>292900</v>
+        <v>332230</v>
       </c>
       <c r="D52" s="99" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="43"/>
@@ -5256,10 +5258,10 @@
       </c>
       <c r="B53" s="43"/>
       <c r="C53" s="98">
-        <v>183150</v>
+        <v>186930</v>
       </c>
       <c r="D53" s="102" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="12"/>
@@ -5325,10 +5327,10 @@
       </c>
       <c r="B54" s="97"/>
       <c r="C54" s="106">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="D54" s="99" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="64"/>
@@ -5458,16 +5460,10 @@
       <c r="BI55" s="7"/>
     </row>
     <row r="56" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="100" t="s">
-        <v>45</v>
-      </c>
+      <c r="A56" s="100"/>
       <c r="B56" s="44"/>
-      <c r="C56" s="98">
-        <v>900</v>
-      </c>
-      <c r="D56" s="97" t="s">
-        <v>49</v>
-      </c>
+      <c r="C56" s="98"/>
+      <c r="D56" s="97"/>
       <c r="E56" s="3" t="s">
         <v>12</v>
       </c>
@@ -5534,7 +5530,7 @@
       </c>
       <c r="B57" s="43"/>
       <c r="C57" s="98">
-        <v>20000</v>
+        <v>40360</v>
       </c>
       <c r="D57" s="97" t="s">
         <v>69</v>
@@ -8494,7 +8490,7 @@
       <c r="B99" s="159"/>
       <c r="C99" s="45">
         <f>SUM(C38:C98)</f>
-        <v>1495237</v>
+        <v>1552522</v>
       </c>
       <c r="D99" s="41"/>
       <c r="F99" s="23"/>
@@ -8629,7 +8625,7 @@
       <c r="B101" s="157"/>
       <c r="C101" s="42">
         <f>C99+L122</f>
-        <v>1495237</v>
+        <v>1552522</v>
       </c>
       <c r="D101" s="26"/>
       <c r="F101" s="24"/>
